--- a/output/final_merged_summary_replace_TRUE.xlsx
+++ b/output/final_merged_summary_replace_TRUE.xlsx
@@ -437,7 +437,7 @@
         <v>8.484484484484485</v>
       </c>
       <c r="I2">
-        <v>0.05727950172394617</v>
+        <v>0.05727950172394616</v>
       </c>
       <c r="J2">
         <v>0.5155155155155156</v>
@@ -471,7 +471,7 @@
         <v>8.933933933933934</v>
       </c>
       <c r="I3">
-        <v>0.007340674007340669</v>
+        <v>0.007340674007340673</v>
       </c>
       <c r="J3">
         <v>0.06606606606606606</v>
@@ -913,7 +913,7 @@
         <v>3.158158158158158</v>
       </c>
       <c r="I16">
-        <v>0.6447856586745476</v>
+        <v>0.6447856586745475</v>
       </c>
       <c r="J16">
         <v>5.735735735735735</v>
@@ -947,7 +947,7 @@
         <v>1.107305936073059</v>
       </c>
       <c r="I17">
-        <v>0.4720414764079147</v>
+        <v>0.4720414764079148</v>
       </c>
       <c r="J17">
         <v>0.9554794520547946</v>
@@ -1049,7 +1049,7 @@
         <v>8.425425425425425</v>
       </c>
       <c r="I20">
-        <v>0.06384161939717499</v>
+        <v>0.06384161939717495</v>
       </c>
       <c r="J20">
         <v>0.5745745745745746</v>
@@ -1151,7 +1151,7 @@
         <v>7.93993993993994</v>
       </c>
       <c r="I23">
-        <v>0.1177844511177845</v>
+        <v>0.1177844511177844</v>
       </c>
       <c r="J23">
         <v>1.06006006006006</v>
@@ -1185,7 +1185,7 @@
         <v>8.953953953953954</v>
       </c>
       <c r="I24">
-        <v>0.005116227338449558</v>
+        <v>0.00511622733844956</v>
       </c>
       <c r="J24">
         <v>0.04604604604604605</v>
@@ -1287,7 +1287,7 @@
         <v>8.686686686686686</v>
       </c>
       <c r="I27">
-        <v>0.03481259036814591</v>
+        <v>0.03481259036814592</v>
       </c>
       <c r="J27">
         <v>0.3133133133133133</v>
@@ -1729,7 +1729,7 @@
         <v>7.064064064064064</v>
       </c>
       <c r="I40">
-        <v>0.2151039928817706</v>
+        <v>0.2151039928817707</v>
       </c>
       <c r="J40">
         <v>1.935935935935936</v>
@@ -1763,7 +1763,7 @@
         <v>8.961961961961961</v>
       </c>
       <c r="I41">
-        <v>0.004226448670893118</v>
+        <v>0.004226448670893115</v>
       </c>
       <c r="J41">
         <v>0.03803803803803804</v>
@@ -1865,7 +1865,7 @@
         <v>8.983983983983984</v>
       </c>
       <c r="I44">
-        <v>0.001779557335112887</v>
+        <v>0.001779557335112891</v>
       </c>
       <c r="J44">
         <v>0.01601601601601602</v>
@@ -2035,7 +2035,7 @@
         <v>8.916916916916916</v>
       </c>
       <c r="I49">
-        <v>0.009231453675898121</v>
+        <v>0.009231453675898119</v>
       </c>
       <c r="J49">
         <v>0.08308308308308308</v>
@@ -2137,7 +2137,7 @@
         <v>8.985985985985986</v>
       </c>
       <c r="I52">
-        <v>0.001557112668223778</v>
+        <v>0.001557112668223779</v>
       </c>
       <c r="J52">
         <v>0.01401401401401401</v>
@@ -2171,7 +2171,7 @@
         <v>8.33033033033033</v>
       </c>
       <c r="I53">
-        <v>0.07440774107440776</v>
+        <v>0.07440774107440774</v>
       </c>
       <c r="J53">
         <v>0.6696696696696697</v>
@@ -2239,7 +2239,7 @@
         <v>8.98998998998999</v>
       </c>
       <c r="I55">
-        <v>0.00111222333444556</v>
+        <v>0.001112223334445557</v>
       </c>
       <c r="J55">
         <v>0.01001001001001001</v>
@@ -2375,7 +2375,7 @@
         <v>0.9479479479479479</v>
       </c>
       <c r="I59">
-        <v>0.873137423137423</v>
+        <v>0.8731374231374232</v>
       </c>
       <c r="J59">
         <v>6.49049049049049</v>
@@ -2545,7 +2545,7 @@
         <v>0.9419419419419419</v>
       </c>
       <c r="I64">
-        <v>0.8867295867295868</v>
+        <v>0.8867295867295867</v>
       </c>
       <c r="J64">
         <v>7.374374374374375</v>
@@ -2953,7 +2953,7 @@
         <v>1.764408493427705</v>
       </c>
       <c r="I76">
-        <v>0.5251336125956956</v>
+        <v>0.5251336125956955</v>
       </c>
       <c r="J76">
         <v>1.977755308392315</v>
@@ -2987,7 +2987,7 @@
         <v>1.791791791791792</v>
       </c>
       <c r="I77">
-        <v>0.8003757725979949</v>
+        <v>0.8003757725979948</v>
       </c>
       <c r="J77">
         <v>7.177177177177177</v>
@@ -3361,7 +3361,7 @@
         <v>0.964964964964965</v>
       </c>
       <c r="I88">
-        <v>0.8767632712077156</v>
+        <v>0.8767632712077157</v>
       </c>
       <c r="J88">
         <v>6.811811811811812</v>
@@ -3463,7 +3463,7 @@
         <v>1.814814814814815</v>
       </c>
       <c r="I91">
-        <v>0.7816725455614345</v>
+        <v>0.7816725455614344</v>
       </c>
       <c r="J91">
         <v>6.506506506506507</v>
@@ -3633,7 +3633,7 @@
         <v>8.965965965965966</v>
       </c>
       <c r="I96">
-        <v>0.003781559337114903</v>
+        <v>0.003781559337114892</v>
       </c>
       <c r="J96">
         <v>0.03403403403403404</v>
@@ -3939,7 +3939,7 @@
         <v>4.76976976976977</v>
       </c>
       <c r="I105">
-        <v>0.4696641085529974</v>
+        <v>0.4696641085529975</v>
       </c>
       <c r="J105">
         <v>4.224224224224224</v>
@@ -4075,7 +4075,7 @@
         <v>0.9119119119119119</v>
       </c>
       <c r="I109">
-        <v>0.8579130718019607</v>
+        <v>0.8579130718019606</v>
       </c>
       <c r="J109">
         <v>5.541541541541542</v>
@@ -4143,7 +4143,7 @@
         <v>0.9459459459459459</v>
       </c>
       <c r="I111">
-        <v>0.8846191429524763</v>
+        <v>0.8846191429524762</v>
       </c>
       <c r="J111">
         <v>7.265265265265265</v>
@@ -4177,7 +4177,7 @@
         <v>0.95496417604913</v>
       </c>
       <c r="I112">
-        <v>0.6981905249305455</v>
+        <v>0.6981905249305453</v>
       </c>
       <c r="J112">
         <v>2.232343909928352</v>
@@ -4381,7 +4381,7 @@
         <v>7.781781781781782</v>
       </c>
       <c r="I118">
-        <v>0.1353575798020243</v>
+        <v>0.1353575798020242</v>
       </c>
       <c r="J118">
         <v>1.218218218218218</v>
@@ -4415,7 +4415,7 @@
         <v>8.94994994994995</v>
       </c>
       <c r="I119">
-        <v>0.005561116672227777</v>
+        <v>0.005561116672227783</v>
       </c>
       <c r="J119">
         <v>0.05005005005005005</v>
@@ -4517,7 +4517,7 @@
         <v>2.499491353001017</v>
       </c>
       <c r="I122">
-        <v>0.2082546141549194</v>
+        <v>0.2082546141549193</v>
       </c>
       <c r="J122">
         <v>0.671414038657172</v>
@@ -4585,7 +4585,7 @@
         <v>5.144144144144144</v>
       </c>
       <c r="I124">
-        <v>0.4263569124680236</v>
+        <v>0.4263569124680235</v>
       </c>
       <c r="J124">
         <v>3.825825825825826</v>
@@ -4687,7 +4687,7 @@
         <v>8.024024024024024</v>
       </c>
       <c r="I127">
-        <v>0.1084417751084417</v>
+        <v>0.1084417751084418</v>
       </c>
       <c r="J127">
         <v>0.975975975975976</v>
@@ -4755,7 +4755,7 @@
         <v>8.693693693693694</v>
       </c>
       <c r="I129">
-        <v>0.03403403403403406</v>
+        <v>0.03403403403403403</v>
       </c>
       <c r="J129">
         <v>0.3063063063063063</v>
@@ -4823,7 +4823,7 @@
         <v>4.721721721721722</v>
       </c>
       <c r="I131">
-        <v>0.4753642531420308</v>
+        <v>0.4753642531420309</v>
       </c>
       <c r="J131">
         <v>4.278278278278278</v>
@@ -4891,7 +4891,7 @@
         <v>8.975975975975976</v>
       </c>
       <c r="I133">
-        <v>0.002669336002669339</v>
+        <v>0.002669336002669336</v>
       </c>
       <c r="J133">
         <v>0.02402402402402402</v>
@@ -4959,7 +4959,7 @@
         <v>1.867303609341826</v>
       </c>
       <c r="I135">
-        <v>0.2971716712162571</v>
+        <v>0.2971716712162572</v>
       </c>
       <c r="J135">
         <v>0.8089171974522293</v>
@@ -5027,7 +5027,7 @@
         <v>8.998998998998999</v>
       </c>
       <c r="I137">
-        <v>0.000111222333444555</v>
+        <v>0.0001112223334445557</v>
       </c>
       <c r="J137">
         <v>0.001001001001001001</v>

--- a/output/final_merged_summary_replace_TRUE.xlsx
+++ b/output/final_merged_summary_replace_TRUE.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J138"/>
+  <dimension ref="A1:J128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,31 +416,31 @@
         </is>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>8.484484484484485</v>
+        <v>7.574574574574575</v>
       </c>
       <c r="I2">
-        <v>0.05727950172394616</v>
+        <v>0.05317817817817818</v>
       </c>
       <c r="J2">
-        <v>0.5155155155155156</v>
+        <v>0.4254254254254254</v>
       </c>
     </row>
     <row r="3">
@@ -450,31 +450,31 @@
         </is>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>6</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>8.933933933933934</v>
+        <v>7.950950950950951</v>
       </c>
       <c r="I3">
-        <v>0.007340674007340673</v>
+        <v>0.006131131131131131</v>
       </c>
       <c r="J3">
-        <v>0.06606606606606606</v>
+        <v>0.04904904904904905</v>
       </c>
     </row>
     <row r="4">
@@ -484,31 +484,31 @@
         </is>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>7.996996996996997</v>
       </c>
       <c r="H4">
-        <v>3.194194194194194</v>
+        <v>1.731731731731732</v>
       </c>
       <c r="I4">
-        <v>0.6450895339784228</v>
+        <v>0.7834799084799084</v>
       </c>
       <c r="J4">
-        <v>5.805805805805806</v>
+        <v>6.265265265265265</v>
       </c>
     </row>
     <row r="5">
@@ -518,479 +518,479 @@
         </is>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="G5">
-        <v>8.917917917917919</v>
+        <v>7.950950950950951</v>
       </c>
       <c r="H5">
-        <v>1.752752752752753</v>
+        <v>1.75975975975976</v>
       </c>
       <c r="I5">
-        <v>0.8034383589939146</v>
+        <v>0.7785642785642786</v>
       </c>
       <c r="J5">
-        <v>7.165165165165165</v>
+        <v>6.191191191191191</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Adoxophyes templana complex</t>
+          <t>Adoxophyes thoracica</t>
         </is>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G6">
-        <v>8.746746746746746</v>
+        <v>7.925925925925926</v>
       </c>
       <c r="H6">
-        <v>0.9509509509509509</v>
+        <v>0.954954954954955</v>
       </c>
       <c r="I6">
-        <v>0.891282155171044</v>
+        <v>0.8794568377901711</v>
       </c>
       <c r="J6">
-        <v>7.795795795795796</v>
+        <v>6.970970970970971</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Adoxophyes thoracica</t>
+          <t>Adoxophyes tripselia</t>
         </is>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
       <c r="F7">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>8.963963963963964</v>
+        <v>7.986986986986987</v>
       </c>
       <c r="H7">
-        <v>2.52052052052052</v>
+        <v>1.786786786786787</v>
       </c>
       <c r="I7">
-        <v>0.7187048159270382</v>
+        <v>0.7762047762047762</v>
       </c>
       <c r="J7">
-        <v>6.443443443443443</v>
+        <v>6.2002002002002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Adoxophyes tripselia</t>
+          <t>Agriophara sp. AAD4602</t>
         </is>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.5714285714285714</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>8.986986986986986</v>
+        <v>3.664321608040201</v>
       </c>
       <c r="H8">
-        <v>3.207207207207207</v>
+        <v>0.9336683417085427</v>
       </c>
       <c r="I8">
-        <v>0.6430875319764209</v>
+        <v>0.7474300071787509</v>
       </c>
       <c r="J8">
-        <v>5.77977977977978</v>
+        <v>2.730653266331658</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Agriophara sp. AAD4602</t>
+          <t>Agrotera genuflexa</t>
         </is>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="G9">
-        <v>4.27537688442211</v>
+        <v>7.992992992992993</v>
       </c>
       <c r="H9">
-        <v>0.9708542713567839</v>
+        <v>6.693693693693693</v>
       </c>
       <c r="I9">
-        <v>0.7700119645848289</v>
+        <v>0.1625375375375375</v>
       </c>
       <c r="J9">
-        <v>3.304522613065326</v>
+        <v>1.299299299299299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Agrotera genuflexa</t>
+          <t>Agrotera ignepictoides</t>
         </is>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>8.984984984984985</v>
+        <v>7.941941941941942</v>
       </c>
       <c r="H10">
-        <v>7.297297297297297</v>
+        <v>6.255255255255255</v>
       </c>
       <c r="I10">
-        <v>0.1878684239795351</v>
+        <v>0.2122777539444206</v>
       </c>
       <c r="J10">
-        <v>1.687687687687688</v>
+        <v>1.686686686686687</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Agrotera ignepictoides</t>
+          <t>Agrotera nr. effertalis</t>
         </is>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>7</v>
       </c>
       <c r="F11">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G11">
-        <v>8.922922922922924</v>
+        <v>7.990990990990991</v>
       </c>
       <c r="H11">
-        <v>6.632632632632633</v>
+        <v>6.70970970970971</v>
       </c>
       <c r="I11">
-        <v>0.256812367923479</v>
+        <v>0.1602316602316602</v>
       </c>
       <c r="J11">
-        <v>2.29029029029029</v>
+        <v>1.281281281281281</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Agrotera nr. effertalis</t>
+          <t>Albinospila sp. AAB0430</t>
         </is>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>8</v>
       </c>
       <c r="F12">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="G12">
-        <v>8.993993993993994</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>7.573573573573573</v>
+        <v>3.086086086086086</v>
       </c>
       <c r="I12">
-        <v>0.1578522967411856</v>
+        <v>0.6142392392392393</v>
       </c>
       <c r="J12">
-        <v>1.42042042042042</v>
+        <v>4.913913913913914</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Albinospila sp. AAB0430</t>
+          <t>Arctornis nr. intacta 1 SEM-2008</t>
         </is>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>4.277277277277277</v>
+        <v>6.5995995995996</v>
       </c>
       <c r="I13">
-        <v>0.5247469691914136</v>
+        <v>0.1750500500500501</v>
       </c>
       <c r="J13">
-        <v>4.722722722722723</v>
+        <v>1.4004004004004</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Arctornis nr. intacta 1 SEM-2008</t>
+          <t>Arctornis nr. intacta 2 SEM-2008</t>
         </is>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.4444444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>6.058058058058058</v>
       </c>
       <c r="H14">
-        <v>7.298298298298298</v>
+        <v>1.009009009009009</v>
       </c>
       <c r="I14">
-        <v>0.1890779668557446</v>
+        <v>0.8330020496687164</v>
       </c>
       <c r="J14">
-        <v>1.701701701701702</v>
+        <v>5.049049049049049</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Arctornis nr. intacta 2 SEM-2008</t>
+          <t>Arctornis nr. intacta 3 SEM-2008</t>
         </is>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="G15">
-        <v>6.454454454454455</v>
+        <v>7.944944944944945</v>
       </c>
       <c r="H15">
-        <v>0.983983983983984</v>
+        <v>3.129129129129129</v>
       </c>
       <c r="I15">
-        <v>0.8460941099829988</v>
+        <v>0.6063027313027313</v>
       </c>
       <c r="J15">
-        <v>5.47047047047047</v>
+        <v>4.815815815815816</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Arctornis nr. intacta 3 SEM-2008</t>
+          <t>Asota caricae</t>
         </is>
       </c>
       <c r="B16">
         <v>5</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>5</v>
       </c>
       <c r="F16">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>8.893893893893894</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>3.158158158158158</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <v>0.6447856586745475</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>5.735735735735735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Artaxa sp. AAD5374</t>
+          <t>Asota eusemioides</t>
         </is>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>2.062785388127854</v>
+        <v>7.758758758758759</v>
       </c>
       <c r="H17">
-        <v>1.107305936073059</v>
+        <v>3.148148148148148</v>
       </c>
       <c r="I17">
-        <v>0.4720414764079148</v>
+        <v>0.5932956766290099</v>
       </c>
       <c r="J17">
-        <v>0.9554794520547946</v>
+        <v>4.61061061061061</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Asota caricae</t>
+          <t>Asota plana</t>
         </is>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>6</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>7.605605605605605</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0492992992992993</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3943943943943944</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Asota eusemioides</t>
+          <t>Brenthia JR22</t>
         </is>
       </c>
       <c r="B19">
@@ -1009,328 +1009,328 @@
         <v>0.4</v>
       </c>
       <c r="G19">
-        <v>8.787787787787789</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>3.784784784784785</v>
+        <v>5.226226226226226</v>
       </c>
       <c r="I19">
-        <v>0.5693987638432083</v>
+        <v>0.3467217217217217</v>
       </c>
       <c r="J19">
-        <v>5.003003003003003</v>
+        <v>2.773773773773774</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Asota plana</t>
+          <t>Brenthia JR32</t>
         </is>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>6</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>9</v>
+        <v>7.997997997997998</v>
       </c>
       <c r="H20">
-        <v>8.425425425425425</v>
+        <v>6.407407407407407</v>
       </c>
       <c r="I20">
-        <v>0.06384161939717495</v>
+        <v>0.1988416988416988</v>
       </c>
       <c r="J20">
-        <v>0.5745745745745746</v>
+        <v>1.590590590590591</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brenthia JR22</t>
+          <t>Brenthia JR34</t>
         </is>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H21">
-        <v>6.405405405405405</v>
+        <v>7.049049049049049</v>
       </c>
       <c r="I21">
-        <v>0.2882882882882883</v>
+        <v>0.1188688688688689</v>
       </c>
       <c r="J21">
-        <v>2.594594594594595</v>
+        <v>0.9509509509509509</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Brenthia JR32</t>
+          <t>Brenthia JR37</t>
         </is>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>0.4285714285714285</v>
+        <v>0.6</v>
       </c>
       <c r="G22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H22">
-        <v>8.022022022022021</v>
+        <v>7.910910910910911</v>
       </c>
       <c r="I22">
-        <v>0.1086642197753309</v>
+        <v>0.01113613613613614</v>
       </c>
       <c r="J22">
-        <v>0.977977977977978</v>
+        <v>0.08908908908908909</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Brenthia JR34</t>
+          <t>Brenthia JR39</t>
         </is>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>7.980980980980981</v>
       </c>
       <c r="H23">
-        <v>7.93993993993994</v>
+        <v>3.624624624624625</v>
       </c>
       <c r="I23">
-        <v>0.1177844511177844</v>
+        <v>0.5459030459030459</v>
       </c>
       <c r="J23">
-        <v>1.06006006006006</v>
+        <v>4.356356356356357</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Brenthia JR37</t>
+          <t>Brenthia JR54</t>
         </is>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H24">
-        <v>8.953953953953954</v>
+        <v>7.997997997997998</v>
       </c>
       <c r="I24">
-        <v>0.00511622733844956</v>
+        <v>0.0002502502502502502</v>
       </c>
       <c r="J24">
-        <v>0.04604604604604605</v>
+        <v>0.002002002002002002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brenthia JR39</t>
+          <t>Brenthia JR62</t>
         </is>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F25">
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>8.978978978978979</v>
+        <v>8</v>
       </c>
       <c r="H25">
-        <v>3.770770770770771</v>
+        <v>7.758758758758759</v>
       </c>
       <c r="I25">
-        <v>0.5800244689133578</v>
+        <v>0.03015515515515516</v>
       </c>
       <c r="J25">
-        <v>5.208208208208208</v>
+        <v>0.2412412412412412</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Brenthia JR54</t>
+          <t>Brenthia sp. AAC1202</t>
         </is>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>3</v>
       </c>
       <c r="E26">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>7.90990990990991</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>3.55955955955956</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>0.5500619667286334</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>4.35035035035035</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Brenthia JR62</t>
+          <t>Brenthia sp. AAC1206</t>
         </is>
       </c>
       <c r="B27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.2857142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>9</v>
+        <v>7.856856856856857</v>
       </c>
       <c r="H27">
-        <v>8.686686686686686</v>
+        <v>3.23023023023023</v>
       </c>
       <c r="I27">
-        <v>0.03481259036814592</v>
+        <v>0.588963963963964</v>
       </c>
       <c r="J27">
-        <v>0.3133133133133133</v>
+        <v>4.626626626626627</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Brenthia sp. AAC1202</t>
+          <t>Brenthia sp. AAF6821</t>
         </is>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G28">
-        <v>8.961961961961961</v>
+        <v>7.934934934934935</v>
       </c>
       <c r="H28">
-        <v>5.205205205205205</v>
+        <v>2.453453453453454</v>
       </c>
       <c r="I28">
-        <v>0.4190380857047524</v>
+        <v>0.6907621907621908</v>
       </c>
       <c r="J28">
-        <v>3.756756756756757</v>
+        <v>5.481481481481482</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Brenthia sp. AAC1206</t>
+          <t>Brenthia sp. AAI3833</t>
         </is>
       </c>
       <c r="B29">
@@ -1349,22 +1349,22 @@
         <v>0.75</v>
       </c>
       <c r="G29">
-        <v>8.91991991991992</v>
+        <v>6.72972972972973</v>
       </c>
       <c r="H29">
-        <v>3.203203203203203</v>
+        <v>0.9069069069069069</v>
       </c>
       <c r="I29">
-        <v>0.6407081684859463</v>
+        <v>0.864665856332523</v>
       </c>
       <c r="J29">
-        <v>5.716716716716717</v>
+        <v>5.822822822822823</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Brenthia sp. AAF6821</t>
+          <t>Brenthia sp. AAI3835</t>
         </is>
       </c>
       <c r="B30">
@@ -1383,158 +1383,158 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>8.974974974974975</v>
+        <v>7.947947947947948</v>
       </c>
       <c r="H30">
-        <v>3.214214214214214</v>
+        <v>3.129129129129129</v>
       </c>
       <c r="I30">
-        <v>0.6419614058502947</v>
+        <v>0.6059988559988559</v>
       </c>
       <c r="J30">
-        <v>5.76076076076076</v>
+        <v>4.818818818818819</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Brenthia sp. AAI3833</t>
+          <t>Brenthia sp. AAL5584</t>
         </is>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G31">
-        <v>7.416416416416417</v>
+        <v>6.880880880880881</v>
       </c>
       <c r="H31">
-        <v>0.9169169169169169</v>
+        <v>0.9519519519519519</v>
       </c>
       <c r="I31">
-        <v>0.8760943483165705</v>
+        <v>0.8615770532437199</v>
       </c>
       <c r="J31">
-        <v>6.4994994994995</v>
+        <v>5.928928928928929</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brenthia sp. AAI3835</t>
+          <t>Cangetta cf. rectilinea</t>
         </is>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>0.5</v>
       </c>
       <c r="G32">
-        <v>8.97997997997998</v>
+        <v>4.852705410821644</v>
       </c>
       <c r="H32">
-        <v>3.144144144144144</v>
+        <v>0.9468937875751503</v>
       </c>
       <c r="I32">
-        <v>0.6498045664712331</v>
+        <v>0.8079802462066991</v>
       </c>
       <c r="J32">
-        <v>5.835835835835836</v>
+        <v>3.905811623246493</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brenthia sp. AAL5584</t>
+          <t>Chamaita pr. metamelaena</t>
         </is>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G33">
-        <v>8.56056056056056</v>
+        <v>5.726726726726727</v>
       </c>
       <c r="H33">
-        <v>1.78978978978979</v>
+        <v>3.075075075075075</v>
       </c>
       <c r="I33">
-        <v>0.7907629852074296</v>
+        <v>0.4625387292053958</v>
       </c>
       <c r="J33">
-        <v>6.77077077077077</v>
+        <v>2.651651651651652</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cangetta cf. rectilinea</t>
+          <t>Chora huntei</t>
         </is>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G34">
-        <v>5.200400801603206</v>
+        <v>7.432432432432432</v>
       </c>
       <c r="H34">
-        <v>0.9498997995991983</v>
+        <v>0.9429429429429429</v>
       </c>
       <c r="I34">
-        <v>0.8164698444508064</v>
+        <v>0.8735795319128652</v>
       </c>
       <c r="J34">
-        <v>4.250501002004008</v>
+        <v>6.48948948948949</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chamaita pr. metamelaena</t>
+          <t>Choreutis JR06</t>
         </is>
       </c>
       <c r="B35">
@@ -1553,1744 +1553,1744 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>6.901901901901902</v>
+        <v>7.862862862862863</v>
       </c>
       <c r="H35">
-        <v>3.772772772772773</v>
+        <v>2.495495495495495</v>
       </c>
       <c r="I35">
-        <v>0.4516607877718989</v>
+        <v>0.682331140664474</v>
       </c>
       <c r="J35">
-        <v>3.129129129129129</v>
+        <v>5.367367367367367</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Chora huntei</t>
+          <t>Choreutis JR09</t>
         </is>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>8.282282282282281</v>
+        <v>7.974974974974975</v>
       </c>
       <c r="H36">
-        <v>1.766766766766767</v>
+        <v>2.451451451451451</v>
       </c>
       <c r="I36">
-        <v>0.7858747636525414</v>
+        <v>0.6925496925496926</v>
       </c>
       <c r="J36">
-        <v>6.515515515515515</v>
+        <v>5.523523523523523</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Choreutis JR06</t>
+          <t>Choreutis JR2</t>
         </is>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <v>4</v>
       </c>
       <c r="F37">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="G37">
-        <v>8.951951951951951</v>
+        <v>7.878878878878879</v>
       </c>
       <c r="H37">
-        <v>2.517517517517518</v>
+        <v>0.9579579579579579</v>
       </c>
       <c r="I37">
-        <v>0.7185638018971352</v>
+        <v>0.8780625863959197</v>
       </c>
       <c r="J37">
-        <v>6.434434434434435</v>
+        <v>6.920920920920921</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Choreutis JR09</t>
+          <t>Choreutis JR5</t>
         </is>
       </c>
       <c r="B38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G38">
-        <v>8.991991991991991</v>
+        <v>8</v>
       </c>
       <c r="H38">
-        <v>4.687687687687688</v>
+        <v>6.198198198198198</v>
       </c>
       <c r="I38">
-        <v>0.4785618952285619</v>
+        <v>0.2252252252252252</v>
       </c>
       <c r="J38">
-        <v>4.304304304304305</v>
+        <v>1.801801801801802</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Choreutis JR2</t>
+          <t>Choreutis basalis</t>
         </is>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F39">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="G39">
-        <v>8.818818818818819</v>
+        <v>8</v>
       </c>
       <c r="H39">
-        <v>0.944944944944945</v>
+        <v>7.975975975975976</v>
       </c>
       <c r="I39">
-        <v>0.8929564485120041</v>
+        <v>0.003003003003003003</v>
       </c>
       <c r="J39">
-        <v>7.873873873873874</v>
+        <v>0.02402402402402402</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Choreutis JR5</t>
+          <t>Choreutis cf. anthorma</t>
         </is>
       </c>
       <c r="B40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F40">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H40">
-        <v>7.064064064064064</v>
+        <v>8</v>
       </c>
       <c r="I40">
-        <v>0.2151039928817707</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>1.935935935935936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Choreutis basalis</t>
+          <t>Choreutis chi</t>
         </is>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>9</v>
+        <v>4.15508559919436</v>
       </c>
       <c r="H41">
-        <v>8.961961961961961</v>
+        <v>0.9657603222557906</v>
       </c>
       <c r="I41">
-        <v>0.004226448670893115</v>
+        <v>0.7677132786649403</v>
       </c>
       <c r="J41">
-        <v>0.03803803803803804</v>
+        <v>3.18932527693857</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Choreutis cf. anthorma</t>
+          <t>Choreutis lutescens</t>
         </is>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H42">
-        <v>9</v>
+        <v>7.988988988988989</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>0.001376376376376376</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>0.01101101101101101</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Choreutis chi</t>
+          <t>Chrysocraspeda nr. inundata</t>
         </is>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G43">
-        <v>4.316901408450704</v>
+        <v>7.993993993993994</v>
       </c>
       <c r="H43">
-        <v>0.9466800804828974</v>
+        <v>1.731731731731732</v>
       </c>
       <c r="I43">
-        <v>0.7822494490754048</v>
+        <v>0.7833190333190333</v>
       </c>
       <c r="J43">
-        <v>3.370221327967807</v>
+        <v>6.262262262262262</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Choreutis lutescens</t>
+          <t>Chrysocraspeda sp. AAB1427</t>
         </is>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G44">
-        <v>9</v>
+        <v>7.998998998998999</v>
       </c>
       <c r="H44">
-        <v>8.983983983983984</v>
+        <v>0.9619619619619619</v>
       </c>
       <c r="I44">
-        <v>0.001779557335112891</v>
+        <v>0.8797547547547547</v>
       </c>
       <c r="J44">
-        <v>0.01601601601601602</v>
+        <v>7.037037037037037</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Chrysocraspeda nr. inundata</t>
+          <t>Chrysocraspeda sp. AAC8547</t>
         </is>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>8.998998998998999</v>
+        <v>3.134282807731434</v>
       </c>
       <c r="H45">
-        <v>2.49049049049049</v>
+        <v>0.9094608341810784</v>
       </c>
       <c r="I45">
-        <v>0.7232510288065843</v>
+        <v>0.7090296952962263</v>
       </c>
       <c r="J45">
-        <v>6.508508508508508</v>
+        <v>2.224821973550356</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Chrysocraspeda sp. AAB1427</t>
+          <t>Cirrhochrista xanthographis</t>
         </is>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F46">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G46">
-        <v>9</v>
+        <v>7.661661661661662</v>
       </c>
       <c r="H46">
-        <v>2.592592592592593</v>
+        <v>2.494494494494495</v>
       </c>
       <c r="I46">
-        <v>0.7119341563786008</v>
+        <v>0.6743040659707327</v>
       </c>
       <c r="J46">
-        <v>6.407407407407407</v>
+        <v>5.167167167167167</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Chrysocraspeda sp. AAC8547</t>
+          <t>Coelorhyncidia nitidalis</t>
         </is>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G47">
-        <v>3.291370558375634</v>
+        <v>8</v>
       </c>
       <c r="H47">
-        <v>0.9675126903553299</v>
+        <v>7.940940940940941</v>
       </c>
       <c r="I47">
-        <v>0.7130891950688905</v>
+        <v>0.007382382382382383</v>
       </c>
       <c r="J47">
-        <v>2.323857868020304</v>
+        <v>0.05905905905905906</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Cirrhochrista xanthographis</t>
+          <t>CopromorphidaeGEN sp. AAG0483</t>
         </is>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>8.488488488488489</v>
+        <v>2.621052631578948</v>
       </c>
       <c r="H48">
-        <v>2.576576576576576</v>
+        <v>1.868421052631579</v>
       </c>
       <c r="I48">
-        <v>0.6953600425822648</v>
+        <v>0.2805162907268171</v>
       </c>
       <c r="J48">
-        <v>5.911911911911912</v>
+        <v>0.7526315789473684</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Coelorhyncidia nitidalis</t>
+          <t>CopromorphidaeGEN sp. AAG3732</t>
         </is>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>9</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="H49">
-        <v>8.916916916916916</v>
+        <v>1.754754754754755</v>
       </c>
       <c r="I49">
-        <v>0.009231453675898119</v>
+        <v>0.7631166881166881</v>
       </c>
       <c r="J49">
-        <v>0.08308308308308308</v>
+        <v>5.652652652652653</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CopromorphidaeGEN sp. AAG0483</t>
+          <t>Dichomeris n. sp. nr. ochreoviridella</t>
         </is>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>2.704761904761905</v>
+        <v>8</v>
       </c>
       <c r="H50">
-        <v>1.934391534391534</v>
+        <v>7.994994994994995</v>
       </c>
       <c r="I50">
-        <v>0.2826354245401864</v>
+        <v>0.0006256256256256256</v>
       </c>
       <c r="J50">
-        <v>0.7703703703703704</v>
+        <v>0.005005005005005005</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CopromorphidaeGEN sp. AAG3732</t>
+          <t>Dichomeris ochreoviridella</t>
         </is>
       </c>
       <c r="B51">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G51">
-        <v>8.217217217217216</v>
+        <v>8</v>
       </c>
       <c r="H51">
-        <v>1.838838838838839</v>
+        <v>7.414414414414415</v>
       </c>
       <c r="I51">
-        <v>0.7754790504790505</v>
+        <v>0.0731981981981982</v>
       </c>
       <c r="J51">
-        <v>6.378378378378378</v>
+        <v>0.5855855855855856</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Dichomeris n. sp. nr. ochreoviridella</t>
+          <t>Dichomeris sp. AAB2697</t>
         </is>
       </c>
       <c r="B52">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F52">
-        <v>0.1111111111111111</v>
+        <v>0.75</v>
       </c>
       <c r="G52">
-        <v>9</v>
+        <v>4.149298597194389</v>
       </c>
       <c r="H52">
-        <v>8.985985985985986</v>
+        <v>0.9138276553106213</v>
       </c>
       <c r="I52">
-        <v>0.001557112668223779</v>
+        <v>0.7783149632598531</v>
       </c>
       <c r="J52">
-        <v>0.01401401401401401</v>
+        <v>3.235470941883768</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Dichomeris ochreoviridella</t>
+          <t>Dichomeris sp. XXXX068</t>
         </is>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53">
-        <v>0.4444444444444444</v>
+        <v>0.25</v>
       </c>
       <c r="G53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H53">
-        <v>8.33033033033033</v>
+        <v>7.990990990990991</v>
       </c>
       <c r="I53">
-        <v>0.07440774107440774</v>
+        <v>0.001126126126126126</v>
       </c>
       <c r="J53">
-        <v>0.6696696696696697</v>
+        <v>0.009009009009009009</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Dichomeris sp. AAB2697</t>
+          <t>Dichomeris sp. XXXX120</t>
         </is>
       </c>
       <c r="B54">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D54">
         <v>3</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F54">
-        <v>0.75</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G54">
-        <v>4.221105527638191</v>
+        <v>7.995995995995996</v>
       </c>
       <c r="H54">
-        <v>0.9125628140703518</v>
+        <v>5.547547547547548</v>
       </c>
       <c r="I54">
-        <v>0.7805671213208901</v>
+        <v>0.3061275561275562</v>
       </c>
       <c r="J54">
-        <v>3.308542713567839</v>
+        <v>2.448448448448449</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Dichomeris sp. XXXX068</t>
+          <t>Dudua n. sp. nr. aprobola</t>
         </is>
       </c>
       <c r="B55">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F55">
-        <v>0.2222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="G55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H55">
-        <v>8.98998998998999</v>
+        <v>5.567567567567568</v>
       </c>
       <c r="I55">
-        <v>0.001112223334445557</v>
+        <v>0.3040540540540541</v>
       </c>
       <c r="J55">
-        <v>0.01001001001001001</v>
+        <v>2.432432432432432</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Dichomeris sp. XXXX120</t>
+          <t>Euploea leucostictos</t>
         </is>
       </c>
       <c r="B56">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>4</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F56">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G56">
-        <v>8.996996996996996</v>
+        <v>6.55955955955956</v>
       </c>
       <c r="H56">
-        <v>5.900900900900901</v>
+        <v>0.94994994994995</v>
       </c>
       <c r="I56">
-        <v>0.344066288510733</v>
+        <v>0.8544580294580295</v>
       </c>
       <c r="J56">
-        <v>3.096096096096096</v>
+        <v>5.60960960960961</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Dizuga recusataria</t>
+          <t>Gauna phaealis</t>
         </is>
       </c>
       <c r="B57">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E57">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F57">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="G57">
-        <v>9</v>
+        <v>6.974974974974975</v>
       </c>
       <c r="H57">
-        <v>0.970970970970971</v>
+        <v>0.987987987987988</v>
       </c>
       <c r="I57">
-        <v>0.892114336558781</v>
+        <v>0.8580544830544831</v>
       </c>
       <c r="J57">
-        <v>8.029029029029029</v>
+        <v>5.986986986986987</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Dudua n. sp. nr. aprobola</t>
+          <t>Gauna sp. AAF4890</t>
         </is>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>9</v>
+        <v>5.285285285285285</v>
       </c>
       <c r="H58">
-        <v>6.940940940940941</v>
+        <v>0.9509509509509509</v>
       </c>
       <c r="I58">
-        <v>0.228784339895451</v>
+        <v>0.8203810953810954</v>
       </c>
       <c r="J58">
-        <v>2.059059059059059</v>
+        <v>4.334334334334335</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Euploea leucostictos</t>
+          <t>Geometridae sp.GEOM056</t>
         </is>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>7.438438438438438</v>
+        <v>1.477308294209703</v>
       </c>
       <c r="H59">
-        <v>0.9479479479479479</v>
+        <v>1.477308294209703</v>
       </c>
       <c r="I59">
-        <v>0.8731374231374232</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>6.49049049049049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Gauna phaealis</t>
+          <t>Glyphodes margaritaria</t>
         </is>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F60">
-        <v>0.8333333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="G60">
-        <v>7.718718718718718</v>
+        <v>8</v>
       </c>
       <c r="H60">
-        <v>0.965965965965966</v>
+        <v>8</v>
       </c>
       <c r="I60">
-        <v>0.8742329631218521</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>6.752752752752753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Gauna sp. AAF4890</t>
+          <t>Homona mermerodes</t>
         </is>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G61">
-        <v>5.502502502502503</v>
+        <v>7.928928928928929</v>
       </c>
       <c r="H61">
-        <v>0.8998998998998999</v>
+        <v>0.8928928928928929</v>
       </c>
       <c r="I61">
-        <v>0.8360400082622305</v>
+        <v>0.8873158873158873</v>
       </c>
       <c r="J61">
-        <v>4.602602602602603</v>
+        <v>7.036036036036036</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Geometridae sp.GEOM056</t>
+          <t>Hyposidra incomptaria</t>
         </is>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G62">
-        <v>1.521472392638037</v>
+        <v>4.92992992992993</v>
       </c>
       <c r="H62">
-        <v>1.521472392638037</v>
+        <v>0.8928928928928929</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>0.8161006244339578</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>4.037037037037037</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Glyphodes margaritaria</t>
+          <t>Hyposidra talaca</t>
         </is>
       </c>
       <c r="B63">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C63">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E63">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F63">
-        <v>0.2222222222222222</v>
+        <v>0.75</v>
       </c>
       <c r="G63">
-        <v>9</v>
+        <v>4.557114228456914</v>
       </c>
       <c r="H63">
-        <v>9</v>
+        <v>0.93687374749499</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>0.794704885962401</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>3.620240480961924</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Holocola n. sp. AAC7734</t>
+          <t>Idiophantis n. sp. AAB7063</t>
         </is>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F64">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G64">
-        <v>8.316316316316316</v>
+        <v>7.990990990990991</v>
       </c>
       <c r="H64">
-        <v>0.9419419419419419</v>
+        <v>0.944944944944945</v>
       </c>
       <c r="I64">
-        <v>0.8867295867295867</v>
+        <v>0.8818103818103818</v>
       </c>
       <c r="J64">
-        <v>7.374374374374375</v>
+        <v>7.046046046046046</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Homona mermerodes</t>
+          <t>Idiophantis n. sp. AAB7064</t>
         </is>
       </c>
       <c r="B65">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F65">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="G65">
-        <v>8.948948948948949</v>
+        <v>3.122950819672131</v>
       </c>
       <c r="H65">
-        <v>2.533533533533534</v>
+        <v>0.9733606557377049</v>
       </c>
       <c r="I65">
-        <v>0.7167445223000778</v>
+        <v>0.6917203356752537</v>
       </c>
       <c r="J65">
-        <v>6.415415415415415</v>
+        <v>2.149590163934426</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Homona trachyptera</t>
+          <t>Jodis albifusa</t>
         </is>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F66">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="G66">
-        <v>3.730110775427996</v>
+        <v>8</v>
       </c>
       <c r="H66">
-        <v>0.9335347432024169</v>
+        <v>4.488488488488488</v>
       </c>
       <c r="I66">
-        <v>0.7484162950175035</v>
+        <v>0.4389389389389389</v>
       </c>
       <c r="J66">
-        <v>2.796576032225579</v>
+        <v>3.511511511511511</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Hyposidra incomptaria</t>
+          <t>Lactura rhodographa</t>
         </is>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>5.546092184368738</v>
+        <v>2.036951501154734</v>
       </c>
       <c r="H67">
-        <v>0.9599198396793587</v>
+        <v>1.073903002309469</v>
       </c>
       <c r="I67">
-        <v>0.8247248465184337</v>
+        <v>0.4678214010777521</v>
       </c>
       <c r="J67">
-        <v>4.586172344689379</v>
+        <v>0.9630484988452656</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Hyposidra talaca</t>
+          <t>Lambula sp. USNM5</t>
         </is>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G68">
-        <v>5.553553553553553</v>
+        <v>4.083417085427135</v>
       </c>
       <c r="H68">
-        <v>0.974974974974975</v>
+        <v>0.9547738693467337</v>
       </c>
       <c r="I68">
-        <v>0.8255072532850311</v>
+        <v>0.7721476429767887</v>
       </c>
       <c r="J68">
-        <v>4.578578578578578</v>
+        <v>3.128643216080402</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Idiophantis n. sp. AAB7063</t>
+          <t>Limacodidae sp.LIMA007</t>
         </is>
       </c>
       <c r="B69">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>8.96996996996997</v>
+        <v>1.473515248796148</v>
       </c>
       <c r="H69">
-        <v>0.96996996996997</v>
+        <v>1.473515248796148</v>
       </c>
       <c r="I69">
-        <v>0.8917945723501279</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Idiophantis n. sp. AAB7064</t>
+          <t>Lista carniola</t>
         </is>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>3.316056910569106</v>
+        <v>3.654964894684052</v>
       </c>
       <c r="H70">
-        <v>0.9918699186991869</v>
+        <v>1.757271815446339</v>
       </c>
       <c r="I70">
-        <v>0.7061749903213318</v>
+        <v>0.516967569374791</v>
       </c>
       <c r="J70">
-        <v>2.324186991869919</v>
+        <v>1.897693079237713</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Jodis albifusa</t>
+          <t>Loboschiza sp. AAI1072</t>
         </is>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E71">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F71">
-        <v>0.5555555555555556</v>
+        <v>0.875</v>
       </c>
       <c r="G71">
-        <v>9</v>
+        <v>7.977977977977978</v>
       </c>
       <c r="H71">
-        <v>5.139139139139139</v>
+        <v>0.9279279279279279</v>
       </c>
       <c r="I71">
-        <v>0.4289845400956512</v>
+        <v>0.8835919252585919</v>
       </c>
       <c r="J71">
-        <v>3.860860860860861</v>
+        <v>7.05005005005005</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Lactura rhodographa</t>
+          <t>Lymantriidae sp.LYMA045</t>
         </is>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>3.246435845213849</v>
+        <v>1.536098310291859</v>
       </c>
       <c r="H72">
-        <v>0.9806517311608961</v>
+        <v>1.536098310291859</v>
       </c>
       <c r="I72">
-        <v>0.6907744156725827</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>2.265784114052953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Lactura sp. AAI2177</t>
+          <t>Macarostola sp. AAI1170</t>
         </is>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F73">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G73">
-        <v>6.169169169169169</v>
+        <v>7.64964964964965</v>
       </c>
       <c r="H73">
-        <v>1.772772772772773</v>
+        <v>4.151151151151151</v>
       </c>
       <c r="I73">
-        <v>0.712123631568076</v>
+        <v>0.4561609228275895</v>
       </c>
       <c r="J73">
-        <v>4.396396396396397</v>
+        <v>3.498498498498499</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Lambula sp. USNM5</t>
+          <t>Macroglossum melas pullius</t>
         </is>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F74">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G74">
-        <v>4.343343343343343</v>
+        <v>7.962962962962963</v>
       </c>
       <c r="H74">
-        <v>0.9579579579579579</v>
+        <v>1.77977977977978</v>
       </c>
       <c r="I74">
-        <v>0.778157522601967</v>
+        <v>0.7765086515086516</v>
       </c>
       <c r="J74">
-        <v>3.385385385385385</v>
+        <v>6.183183183183183</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Limacodidae sp.LIMA007</t>
+          <t>Macrothyma sanguinolenta</t>
         </is>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G75">
-        <v>1.491961414790997</v>
+        <v>5.276276276276277</v>
       </c>
       <c r="H75">
-        <v>1.491961414790997</v>
+        <v>0.9379379379379379</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>0.8223640306973641</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>4.338338338338338</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Lista carniola</t>
+          <t>Mecistoptera n. sp. AAB6947</t>
         </is>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G76">
-        <v>3.74216380182002</v>
+        <v>7.137137137137137</v>
       </c>
       <c r="H76">
-        <v>1.764408493427705</v>
+        <v>0.980980980980981</v>
       </c>
       <c r="I76">
-        <v>0.5251336125956955</v>
+        <v>0.863009438009438</v>
       </c>
       <c r="J76">
-        <v>1.977755308392315</v>
+        <v>6.156156156156156</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Loboschiza sp. AAI1072</t>
+          <t>Mecistoptera sophiewagnerae</t>
         </is>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E77">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F77">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="G77">
-        <v>8.968968968968969</v>
+        <v>5.54954954954955</v>
       </c>
       <c r="H77">
-        <v>1.791791791791792</v>
+        <v>0.934934934934935</v>
       </c>
       <c r="I77">
-        <v>0.8003757725979948</v>
+        <v>0.8317627150960484</v>
       </c>
       <c r="J77">
-        <v>7.177177177177177</v>
+        <v>4.614614614614615</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Lymantriidae sp.LYMA045</t>
+          <t>Meekiaria nigriscriptalis</t>
         </is>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G78">
-        <v>1.518821603927987</v>
+        <v>4.574724172517553</v>
       </c>
       <c r="H78">
-        <v>1.518821603927987</v>
+        <v>0.950852557673019</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>0.7913299422075751</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>3.623871614844534</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Macarostola sp. AAI1170</t>
+          <t>Meekiaria nr. lignea</t>
         </is>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>8.983983983983984</v>
+        <v>1.99092970521542</v>
       </c>
       <c r="H79">
-        <v>5.193193193193193</v>
+        <v>1.04421768707483</v>
       </c>
       <c r="I79">
-        <v>0.4218941163385608</v>
+        <v>0.478968253968254</v>
       </c>
       <c r="J79">
-        <v>3.790790790790791</v>
+        <v>0.9467120181405896</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Macroglossum melas pullius</t>
+          <t>Meekiaria purpurea</t>
         </is>
       </c>
       <c r="B80">
         <v>8</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D80">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E80">
         <v>8</v>
       </c>
       <c r="F80">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>8.951951951951951</v>
+        <v>8</v>
       </c>
       <c r="H80">
-        <v>2.544544544544545</v>
+        <v>8</v>
       </c>
       <c r="I80">
-        <v>0.7157316046204935</v>
+        <v>0</v>
       </c>
       <c r="J80">
-        <v>6.407407407407407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Macrothyma sanguinolenta</t>
+          <t>Meekiaria sp. AAA3375</t>
         </is>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D81">
         <v>3</v>
       </c>
       <c r="E81">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F81">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G81">
-        <v>5.557557557557558</v>
+        <v>7.514514514514515</v>
       </c>
       <c r="H81">
-        <v>0.98998998998999</v>
+        <v>2.487487487487487</v>
       </c>
       <c r="I81">
-        <v>0.8240224351335462</v>
+        <v>0.6686567519900853</v>
       </c>
       <c r="J81">
-        <v>4.567567567567568</v>
+        <v>5.027027027027027</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Mecistoptera n. sp. AAB6947</t>
+          <t>Meekiaria sp. AAA3376</t>
         </is>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E82">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F82">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="G82">
-        <v>7.784784784784785</v>
+        <v>6.867867867867868</v>
       </c>
       <c r="H82">
-        <v>0.9569569569569569</v>
+        <v>0.8718718718718719</v>
       </c>
       <c r="I82">
-        <v>0.8769869075424631</v>
+        <v>0.8739680156346823</v>
       </c>
       <c r="J82">
-        <v>6.827827827827828</v>
+        <v>5.995995995995996</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Mecistoptera sophiewagnerae</t>
+          <t>Meekiaria sp. AAA3378</t>
         </is>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83">
         <v>3</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F83">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="G83">
-        <v>5.894894894894895</v>
+        <v>7.960960960960961</v>
       </c>
       <c r="H83">
-        <v>0.924924924924925</v>
+        <v>3.072072072072072</v>
       </c>
       <c r="I83">
-        <v>0.8447292530625864</v>
+        <v>0.6141141141141141</v>
       </c>
       <c r="J83">
-        <v>4.96996996996997</v>
+        <v>4.888888888888889</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Meekiaria nigriscriptalis</t>
+          <t>Meekiaria sp. AAA3379</t>
         </is>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F84">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G84">
-        <v>4.700100300902708</v>
+        <v>8</v>
       </c>
       <c r="H84">
-        <v>0.9097291875626881</v>
+        <v>5.538538538538538</v>
       </c>
       <c r="I84">
-        <v>0.808143080033752</v>
+        <v>0.3076826826826827</v>
       </c>
       <c r="J84">
-        <v>3.79037111334002</v>
+        <v>2.461461461461461</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Meekiaria nr. lignea</t>
+          <t>Meekiaria sp. AAA3380</t>
         </is>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G85">
-        <v>2.081680280046674</v>
+        <v>7.467467467467467</v>
       </c>
       <c r="H85">
-        <v>1.106184364060677</v>
+        <v>1.822822822822823</v>
       </c>
       <c r="I85">
-        <v>0.4712952158693116</v>
+        <v>0.7561454311454311</v>
       </c>
       <c r="J85">
-        <v>0.9754959159859977</v>
+        <v>5.644644644644645</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Meekiaria purpurea</t>
+          <t>Meekiaria sp. BOLD:AAA3374</t>
         </is>
       </c>
       <c r="B86">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H86">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -3302,1769 +3302,1429 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Meekiaria sp. AAA3375</t>
+          <t>Meekiaria sp. CRAM151</t>
         </is>
       </c>
       <c r="B87">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D87">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F87">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="G87">
-        <v>8.37937937937938</v>
+        <v>4.83567134268537</v>
       </c>
       <c r="H87">
-        <v>2.533533533533534</v>
+        <v>0.9208416833667334</v>
       </c>
       <c r="I87">
-        <v>0.6976857810191144</v>
+        <v>0.8091313579540033</v>
       </c>
       <c r="J87">
-        <v>5.845845845845846</v>
+        <v>3.914829659318637</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Meekiaria sp. AAA3376</t>
+          <t>Mellea hieroglyphica</t>
         </is>
       </c>
       <c r="B88">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
         <v>6</v>
       </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88">
-        <v>5</v>
-      </c>
       <c r="E88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F88">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G88">
-        <v>7.776776776776777</v>
+        <v>8</v>
       </c>
       <c r="H88">
-        <v>0.964964964964965</v>
+        <v>6.197197197197197</v>
       </c>
       <c r="I88">
-        <v>0.8767632712077157</v>
+        <v>0.2253503503503503</v>
       </c>
       <c r="J88">
-        <v>6.811811811811812</v>
+        <v>1.802802802802803</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Meekiaria sp. AAA3378</t>
+          <t>Mellea nitida</t>
         </is>
       </c>
       <c r="B89">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F89">
-        <v>0.6666666666666666</v>
+        <v>0.125</v>
       </c>
       <c r="G89">
-        <v>8.930930930930931</v>
+        <v>8</v>
       </c>
       <c r="H89">
-        <v>3.132132132132132</v>
+        <v>7.503503503503503</v>
       </c>
       <c r="I89">
-        <v>0.6491074407741074</v>
+        <v>0.06206206206206206</v>
       </c>
       <c r="J89">
-        <v>5.798798798798799</v>
+        <v>0.4964964964964965</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Meekiaria sp. AAA3379</t>
+          <t>Mellea ordinaria complex</t>
         </is>
       </c>
       <c r="B90">
+        <v>8</v>
+      </c>
+      <c r="C90">
         <v>6</v>
       </c>
-      <c r="C90">
-        <v>4</v>
-      </c>
       <c r="D90">
         <v>2</v>
       </c>
       <c r="E90">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F90">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G90">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H90">
-        <v>6.204204204204204</v>
+        <v>7.978978978978979</v>
       </c>
       <c r="I90">
-        <v>0.310643977310644</v>
+        <v>0.002627627627627628</v>
       </c>
       <c r="J90">
-        <v>2.795795795795796</v>
+        <v>0.02102102102102102</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Meekiaria sp. AAA3380</t>
+          <t>Mellea ramifera</t>
         </is>
       </c>
       <c r="B91">
         <v>6</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>6</v>
       </c>
       <c r="F91">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>8.321321321321321</v>
+        <v>8</v>
       </c>
       <c r="H91">
-        <v>1.814814814814815</v>
+        <v>7.804804804804805</v>
       </c>
       <c r="I91">
-        <v>0.7816725455614344</v>
+        <v>0.0243993993993994</v>
       </c>
       <c r="J91">
-        <v>6.506506506506507</v>
+        <v>0.1951951951951952</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Meekiaria sp. BOLD:AAA3374</t>
+          <t>Mellea rectiviata</t>
         </is>
       </c>
       <c r="B92">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C92">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="G92">
-        <v>9</v>
+        <v>7.948948948948949</v>
       </c>
       <c r="H92">
-        <v>9</v>
+        <v>3.643643643643644</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>0.5417024167024167</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>4.305305305305305</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Meekiaria sp. CRAM151</t>
+          <t>Mellea sp. 1 nr. ordinaria</t>
         </is>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F93">
-        <v>0.6666666666666666</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G93">
-        <v>5.881881881881882</v>
+        <v>8</v>
       </c>
       <c r="H93">
-        <v>0.987987987987988</v>
+        <v>4.94994994994995</v>
       </c>
       <c r="I93">
-        <v>0.8307263612819168</v>
+        <v>0.3812562562562563</v>
       </c>
       <c r="J93">
-        <v>4.893893893893894</v>
+        <v>3.05005005005005</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Mellea hieroglyphica</t>
+          <t>Mellea sp. AAI1456</t>
         </is>
       </c>
       <c r="B94">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
         <v>6</v>
       </c>
-      <c r="E94">
-        <v>7</v>
-      </c>
       <c r="F94">
-        <v>0.8571428571428571</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G94">
-        <v>8.998998998998999</v>
+        <v>8</v>
       </c>
       <c r="H94">
-        <v>6.722722722722723</v>
+        <v>6.415415415415415</v>
       </c>
       <c r="I94">
-        <v>0.2529334890446002</v>
+        <v>0.1980730730730731</v>
       </c>
       <c r="J94">
-        <v>2.276276276276276</v>
+        <v>1.584584584584585</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Mellea nitida</t>
+          <t>Mellea sp. AAI1457</t>
         </is>
       </c>
       <c r="B95">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C95">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F95">
-        <v>0.1111111111111111</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G95">
-        <v>9</v>
+        <v>7.952952952952953</v>
       </c>
       <c r="H95">
-        <v>8.442442442442442</v>
+        <v>0.8988988988988988</v>
       </c>
       <c r="I95">
-        <v>0.0619508397286175</v>
+        <v>0.8868511368511368</v>
       </c>
       <c r="J95">
-        <v>0.5575575575575575</v>
+        <v>7.054054054054054</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Mellea ordinaria complex</t>
+          <t>Mellea sp. AAI1460</t>
         </is>
       </c>
       <c r="B96">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>9</v>
+        <v>2.617954070981211</v>
       </c>
       <c r="H96">
-        <v>8.965965965965966</v>
+        <v>0.988517745302714</v>
       </c>
       <c r="I96">
-        <v>0.003781559337114892</v>
+        <v>0.6193408887563376</v>
       </c>
       <c r="J96">
-        <v>0.03403403403403404</v>
+        <v>1.629436325678497</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Mellea ramifera</t>
+          <t>Mellea sp. AAI1461</t>
         </is>
       </c>
       <c r="B97">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F97">
-        <v>0.1428571428571428</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G97">
-        <v>9</v>
+        <v>6.455455455455455</v>
       </c>
       <c r="H97">
-        <v>8.74974974974975</v>
+        <v>0.8928928928928929</v>
       </c>
       <c r="I97">
-        <v>0.02780558336113892</v>
+        <v>0.8605808189141523</v>
       </c>
       <c r="J97">
-        <v>0.2502502502502503</v>
+        <v>5.562562562562563</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Mellea rectiviata</t>
+          <t>Mellea sp. THYR012</t>
         </is>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E98">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F98">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="G98">
-        <v>8.901901901901901</v>
+        <v>7.997997997997998</v>
       </c>
       <c r="H98">
-        <v>3.768768768768769</v>
+        <v>4.175175175175175</v>
       </c>
       <c r="I98">
-        <v>0.576278659611993</v>
+        <v>0.4779601029601029</v>
       </c>
       <c r="J98">
-        <v>5.133133133133133</v>
+        <v>3.822822822822823</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Mellea sp. 1 nr. ordinaria</t>
+          <t>Mellea sp.near rectiviata</t>
         </is>
       </c>
       <c r="B99">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F99">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>9</v>
+        <v>7.994994994994995</v>
       </c>
       <c r="H99">
-        <v>5.157157157157157</v>
+        <v>4.473473473473473</v>
       </c>
       <c r="I99">
-        <v>0.4269825380936492</v>
+        <v>0.4405476905476906</v>
       </c>
       <c r="J99">
-        <v>3.842842842842843</v>
+        <v>3.521521521521521</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Mellea sp. AAI1456</t>
+          <t>Moca congrualis</t>
         </is>
       </c>
       <c r="B100">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F100">
-        <v>0.3333333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="G100">
-        <v>9</v>
+        <v>7.965965965965966</v>
       </c>
       <c r="H100">
-        <v>6.837837837837838</v>
+        <v>1.771771771771772</v>
       </c>
       <c r="I100">
-        <v>0.2402402402402402</v>
+        <v>0.7777062777062778</v>
       </c>
       <c r="J100">
-        <v>2.162162162162162</v>
+        <v>6.194194194194194</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Mellea sp. AAI1457</t>
+          <t>Nothomastix klossi</t>
         </is>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>8.914914914914915</v>
+        <v>5.986986986986987</v>
       </c>
       <c r="H101">
-        <v>0.9369369369369369</v>
+        <v>0.908908908908909</v>
       </c>
       <c r="I101">
-        <v>0.895117339561784</v>
+        <v>0.8482661232661233</v>
       </c>
       <c r="J101">
-        <v>7.977977977977978</v>
+        <v>5.078078078078078</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Mellea sp. AAI1460</t>
+          <t>Nycteola n. sp. AAB7439</t>
         </is>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="G102">
-        <v>2.66031746031746</v>
+        <v>7.873873873873874</v>
       </c>
       <c r="H102">
-        <v>1.003174603174603</v>
+        <v>0.9419419419419419</v>
       </c>
       <c r="I102">
-        <v>0.6230788611740993</v>
+        <v>0.8802612135945469</v>
       </c>
       <c r="J102">
-        <v>1.657142857142857</v>
+        <v>6.931931931931932</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Mellea sp. AAI1461</t>
+          <t>Nycteola nr. pseudoindica</t>
         </is>
       </c>
       <c r="B103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E103">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F103">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="G103">
-        <v>6.858858858858859</v>
+        <v>7.223223223223223</v>
       </c>
       <c r="H103">
-        <v>0.9419419419419419</v>
+        <v>0.9519519519519519</v>
       </c>
       <c r="I103">
-        <v>0.8619552091774314</v>
+        <v>0.8686758186758187</v>
       </c>
       <c r="J103">
-        <v>5.916916916916917</v>
+        <v>6.271271271271272</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Mellea sp. THYR012</t>
+          <t>Ophiorrhabda deceptor</t>
         </is>
       </c>
       <c r="B104">
         <v>8</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E104">
         <v>8</v>
       </c>
       <c r="F104">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="G104">
-        <v>8.996996996996996</v>
+        <v>8</v>
       </c>
       <c r="H104">
-        <v>4.26026026026026</v>
+        <v>6.232232232232232</v>
       </c>
       <c r="I104">
-        <v>0.5264709153598043</v>
+        <v>0.220970970970971</v>
       </c>
       <c r="J104">
-        <v>4.736736736736737</v>
+        <v>1.767767767767768</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Mellea sp.near rectiviata</t>
+          <t>Ophyx crinipes</t>
         </is>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G105">
-        <v>8.993993993993994</v>
+        <v>7.922922922922923</v>
       </c>
       <c r="H105">
-        <v>4.76976976976977</v>
+        <v>6.402402402402402</v>
       </c>
       <c r="I105">
-        <v>0.4696641085529975</v>
+        <v>0.1918585251918585</v>
       </c>
       <c r="J105">
-        <v>4.224224224224224</v>
+        <v>1.520520520520521</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Moca congrualis</t>
+          <t>Orthaga nr. percnodes</t>
         </is>
       </c>
       <c r="B106">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E106">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F106">
-        <v>0.8888888888888888</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G106">
-        <v>8.970970970970971</v>
+        <v>7.723723723723723</v>
       </c>
       <c r="H106">
-        <v>1.700700700700701</v>
+        <v>4.950950950950951</v>
       </c>
       <c r="I106">
-        <v>0.810352018685352</v>
+        <v>0.3585788169121503</v>
       </c>
       <c r="J106">
-        <v>7.27027027027027</v>
+        <v>2.772772772772773</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Noctuidae sp.NOCT061</t>
+          <t>Orvasca sp. AAD8421</t>
         </is>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G107">
-        <v>2.618743343982961</v>
+        <v>4.122367101303912</v>
       </c>
       <c r="H107">
-        <v>2.618743343982961</v>
+        <v>0.9378134403209629</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>0.7738775851363615</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>3.184553660982949</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>NolidaeGEN sp. AAH3367</t>
+          <t>Paraphomia disjuncta</t>
         </is>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F108">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G108">
-        <v>4.776776776776777</v>
+        <v>8</v>
       </c>
       <c r="H108">
-        <v>0.9209209209209209</v>
+        <v>7.133133133133133</v>
       </c>
       <c r="I108">
-        <v>0.8053029219695886</v>
+        <v>0.1083583583583584</v>
       </c>
       <c r="J108">
-        <v>3.855855855855856</v>
+        <v>0.8668668668668669</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Nothomastix klossi</t>
+          <t>Pharambara splendida</t>
         </is>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="G109">
-        <v>6.453453453453453</v>
+        <v>8</v>
       </c>
       <c r="H109">
-        <v>0.9119119119119119</v>
+        <v>6.813813813813814</v>
       </c>
       <c r="I109">
-        <v>0.8579130718019606</v>
+        <v>0.1482732732732733</v>
       </c>
       <c r="J109">
-        <v>5.541541541541542</v>
+        <v>1.186186186186186</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Nycteola n. sp. AAB7439</t>
+          <t>Philiris helena</t>
         </is>
       </c>
       <c r="B110">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D110">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F110">
-        <v>0.7777777777777778</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>8.85985985985986</v>
+        <v>8</v>
       </c>
       <c r="H110">
-        <v>1.803803803803804</v>
+        <v>7.956956956956957</v>
       </c>
       <c r="I110">
-        <v>0.7963241018796574</v>
+        <v>0.005380380380380381</v>
       </c>
       <c r="J110">
-        <v>7.056056056056056</v>
+        <v>0.04304304304304304</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Nycteola nr. pseudoindica</t>
+          <t>Philiris moira</t>
         </is>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E111">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F111">
-        <v>0.8</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G111">
-        <v>8.211211211211211</v>
+        <v>7.997997997997998</v>
       </c>
       <c r="H111">
-        <v>0.9459459459459459</v>
+        <v>6.39039039039039</v>
       </c>
       <c r="I111">
-        <v>0.8846191429524762</v>
+        <v>0.200986700986701</v>
       </c>
       <c r="J111">
-        <v>7.265265265265265</v>
+        <v>1.607607607607608</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>OecophoridaeGEN sp. AAH7348</t>
+          <t>Philiris sp. AAF6866</t>
         </is>
       </c>
       <c r="B112">
         <v>3</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>3</v>
       </c>
       <c r="F112">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G112">
-        <v>3.187308085977482</v>
+        <v>6.415415415415415</v>
       </c>
       <c r="H112">
-        <v>0.95496417604913</v>
+        <v>3.616616616616616</v>
       </c>
       <c r="I112">
-        <v>0.6981905249305453</v>
+        <v>0.4364245197578531</v>
       </c>
       <c r="J112">
-        <v>2.232343909928352</v>
+        <v>2.798798798798799</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Ophiorrhabda deceptor</t>
+          <t>Piletocera sp. CRAM094</t>
         </is>
       </c>
       <c r="B113">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>9</v>
+        <v>3.135714285714286</v>
       </c>
       <c r="H113">
-        <v>7.565565565565565</v>
+        <v>2.48265306122449</v>
       </c>
       <c r="I113">
-        <v>0.1593816038260483</v>
+        <v>0.2121817298347911</v>
       </c>
       <c r="J113">
-        <v>1.434434434434434</v>
+        <v>0.6530612244897959</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Ophyx crinipes</t>
+          <t>Pleuroptya nr. sabinusalis</t>
         </is>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C114">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F114">
-        <v>0.1428571428571428</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G114">
-        <v>8.871871871871871</v>
+        <v>4.12625250501002</v>
       </c>
       <c r="H114">
-        <v>7.053053053053053</v>
+        <v>0.9328657314629258</v>
       </c>
       <c r="I114">
-        <v>0.2045259545259545</v>
+        <v>0.7698205935680885</v>
       </c>
       <c r="J114">
-        <v>1.818818818818819</v>
+        <v>3.193386773547094</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Orthaga nr. percnodes</t>
+          <t>Pseudocera nr. trissosticha</t>
         </is>
       </c>
       <c r="B115">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F115">
-        <v>0.5714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G115">
-        <v>8.685685685685685</v>
+        <v>7.977977977977978</v>
       </c>
       <c r="H115">
-        <v>5.608608608608608</v>
+        <v>5.025025025025025</v>
       </c>
       <c r="I115">
-        <v>0.3535976452643119</v>
+        <v>0.3701022451022451</v>
       </c>
       <c r="J115">
-        <v>3.077077077077077</v>
+        <v>2.952952952952953</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Orvasca sp. AAD8421</t>
+          <t>Pseudocera sp. AAB1481</t>
         </is>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F116">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G116">
-        <v>4.731462925851703</v>
+        <v>7.631631631631632</v>
       </c>
       <c r="H116">
-        <v>0.9298597194388778</v>
+        <v>0.965965965965966</v>
       </c>
       <c r="I116">
-        <v>0.8027773801571397</v>
+        <v>0.8731695981695982</v>
       </c>
       <c r="J116">
-        <v>3.801603206412826</v>
+        <v>6.665665665665665</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Paraphomia disjuncta</t>
+          <t>Pyrophractis isotherma</t>
         </is>
       </c>
       <c r="B117">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D117">
         <v>2</v>
       </c>
       <c r="E117">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F117">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G117">
-        <v>9</v>
+        <v>7.964964964964965</v>
       </c>
       <c r="H117">
-        <v>7.844844844844845</v>
+        <v>0.964964964964965</v>
       </c>
       <c r="I117">
-        <v>0.1283505727950172</v>
+        <v>0.8788431288431289</v>
       </c>
       <c r="J117">
-        <v>1.155155155155155</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Pharambara splendida</t>
+          <t>Rhodoneura aurata</t>
         </is>
       </c>
       <c r="B118">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C118">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D118">
         <v>3</v>
       </c>
       <c r="E118">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F118">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="G118">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H118">
-        <v>7.781781781781782</v>
+        <v>7.334334334334335</v>
       </c>
       <c r="I118">
-        <v>0.1353575798020242</v>
+        <v>0.08320820820820821</v>
       </c>
       <c r="J118">
-        <v>1.218218218218218</v>
+        <v>0.6656656656656657</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Philiris helena</t>
+          <t>Statherotis discana</t>
         </is>
       </c>
       <c r="B119">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C119">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
       <c r="G119">
-        <v>9</v>
+        <v>4.541541541541542</v>
       </c>
       <c r="H119">
-        <v>8.94994994994995</v>
+        <v>0.9569569569569569</v>
       </c>
       <c r="I119">
-        <v>0.005561116672227783</v>
+        <v>0.7908491825158492</v>
       </c>
       <c r="J119">
-        <v>0.05005005005005005</v>
+        <v>3.584584584584585</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Philiris moira</t>
+          <t>Talanga deliciosa</t>
         </is>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C120">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E120">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F120">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G120">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H120">
-        <v>7.613613613613613</v>
+        <v>7.792792792792793</v>
       </c>
       <c r="I120">
-        <v>0.1540429318207096</v>
+        <v>0.0259009009009009</v>
       </c>
       <c r="J120">
-        <v>1.386386386386386</v>
+        <v>0.2072072072072072</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Philiris sp. AAF6866</t>
+          <t>Talanga excelsalis</t>
         </is>
       </c>
       <c r="B121">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
       <c r="E121">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F121">
-        <v>0.3333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="G121">
-        <v>6.91991991991992</v>
+        <v>8</v>
       </c>
       <c r="H121">
-        <v>3.801801801801802</v>
+        <v>8</v>
       </c>
       <c r="I121">
-        <v>0.4498280026057804</v>
+        <v>0</v>
       </c>
       <c r="J121">
-        <v>3.118118118118118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Piletocera sp. CRAM094</t>
+          <t>Talanga polyzonalis</t>
         </is>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="G122">
-        <v>3.170905391658189</v>
+        <v>7.998998998998999</v>
       </c>
       <c r="H122">
-        <v>2.499491353001017</v>
+        <v>3.095095095095095</v>
       </c>
       <c r="I122">
-        <v>0.2082546141549193</v>
+        <v>0.6130952380952381</v>
       </c>
       <c r="J122">
-        <v>0.671414038657172</v>
+        <v>4.903903903903904</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Pleuroptya nr. sabinusalis</t>
+          <t>Talanga sexpunctalis complex</t>
         </is>
       </c>
       <c r="B123">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E123">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F123">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G123">
-        <v>4.240927419354839</v>
+        <v>8</v>
       </c>
       <c r="H123">
-        <v>0.9657258064516129</v>
+        <v>6.425425425425425</v>
       </c>
       <c r="I123">
-        <v>0.7712617607526882</v>
+        <v>0.1968218218218218</v>
       </c>
       <c r="J123">
-        <v>3.275201612903226</v>
+        <v>1.574574574574575</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Pseudocera nr. trissosticha</t>
+          <t>Tamba kebea</t>
         </is>
       </c>
       <c r="B124">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
       <c r="E124">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F124">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G124">
-        <v>8.96996996996997</v>
+        <v>8</v>
       </c>
       <c r="H124">
-        <v>5.144144144144144</v>
+        <v>7.981981981981982</v>
       </c>
       <c r="I124">
-        <v>0.4263569124680235</v>
+        <v>0.002252252252252252</v>
       </c>
       <c r="J124">
-        <v>3.825825825825826</v>
+        <v>0.01801801801801802</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Pseudocera sp. AAB1481</t>
+          <t>Targalla palliatrix</t>
         </is>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E125">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F125">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="G125">
-        <v>8.431431431431431</v>
+        <v>6.950950950950951</v>
       </c>
       <c r="H125">
-        <v>0.8818818818818819</v>
+        <v>0.8938938938938938</v>
       </c>
       <c r="I125">
-        <v>0.8958645153089597</v>
+        <v>0.8713534963534963</v>
       </c>
       <c r="J125">
-        <v>7.54954954954955</v>
+        <v>6.057057057057057</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Pyrophractis isotherma</t>
+          <t>Tipasa sp. AAI0377</t>
         </is>
       </c>
       <c r="B126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>2.562236286919831</v>
+      </c>
+      <c r="H126">
+        <v>1.812236286919831</v>
+      </c>
+      <c r="I126">
+        <v>0.2931309021498895</v>
+      </c>
+      <c r="J126">
         <v>0.75</v>
-      </c>
-      <c r="G126">
-        <v>8.964964964964965</v>
-      </c>
-      <c r="H126">
-        <v>0.9619619619619619</v>
-      </c>
-      <c r="I126">
-        <v>0.8926009342676009</v>
-      </c>
-      <c r="J126">
-        <v>8.003003003003004</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Rhodoneura aurata</t>
+          <t>Unadophanes trissomita</t>
         </is>
       </c>
       <c r="B127">
         <v>8</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E127">
         <v>8</v>
       </c>
       <c r="F127">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G127">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H127">
-        <v>8.024024024024024</v>
+        <v>7.988988988988989</v>
       </c>
       <c r="I127">
-        <v>0.1084417751084418</v>
+        <v>0.001376376376376376</v>
       </c>
       <c r="J127">
-        <v>0.975975975975976</v>
+        <v>0.01101101101101101</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Statherotis discana</t>
+          <t>Xenothictis gnetivora</t>
         </is>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="G128">
-        <v>4.697394789579159</v>
+        <v>7.901901901901902</v>
       </c>
       <c r="H128">
-        <v>0.9288577154308617</v>
+        <v>3.648648648648649</v>
       </c>
       <c r="I128">
-        <v>0.8041686547698572</v>
+        <v>0.538276371609705</v>
       </c>
       <c r="J128">
-        <v>3.768537074148297</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Talanga deliciosa</t>
-        </is>
-      </c>
-      <c r="B129">
-        <v>7</v>
-      </c>
-      <c r="C129">
-        <v>4</v>
-      </c>
-      <c r="D129">
-        <v>3</v>
-      </c>
-      <c r="E129">
-        <v>7</v>
-      </c>
-      <c r="F129">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="G129">
-        <v>9</v>
-      </c>
-      <c r="H129">
-        <v>8.693693693693694</v>
-      </c>
-      <c r="I129">
-        <v>0.03403403403403403</v>
-      </c>
-      <c r="J129">
-        <v>0.3063063063063063</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Talanga excelsalis</t>
-        </is>
-      </c>
-      <c r="B130">
-        <v>9</v>
-      </c>
-      <c r="C130">
-        <v>8</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130">
-        <v>9</v>
-      </c>
-      <c r="F130">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G130">
-        <v>9</v>
-      </c>
-      <c r="H130">
-        <v>9</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Talanga polyzonalis</t>
-        </is>
-      </c>
-      <c r="B131">
-        <v>7</v>
-      </c>
-      <c r="C131">
-        <v>2</v>
-      </c>
-      <c r="D131">
-        <v>5</v>
-      </c>
-      <c r="E131">
-        <v>7</v>
-      </c>
-      <c r="F131">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="G131">
-        <v>9</v>
-      </c>
-      <c r="H131">
-        <v>4.721721721721722</v>
-      </c>
-      <c r="I131">
-        <v>0.4753642531420309</v>
-      </c>
-      <c r="J131">
-        <v>4.278278278278278</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Talanga sexpunctalis complex</t>
-        </is>
-      </c>
-      <c r="B132">
-        <v>9</v>
-      </c>
-      <c r="C132">
-        <v>5</v>
-      </c>
-      <c r="D132">
-        <v>4</v>
-      </c>
-      <c r="E132">
-        <v>9</v>
-      </c>
-      <c r="F132">
-        <v>0.4444444444444444</v>
-      </c>
-      <c r="G132">
-        <v>9</v>
-      </c>
-      <c r="H132">
-        <v>7.243243243243243</v>
-      </c>
-      <c r="I132">
-        <v>0.1951951951951952</v>
-      </c>
-      <c r="J132">
-        <v>1.756756756756757</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Tamba kebea</t>
-        </is>
-      </c>
-      <c r="B133">
-        <v>8</v>
-      </c>
-      <c r="C133">
-        <v>6</v>
-      </c>
-      <c r="D133">
-        <v>2</v>
-      </c>
-      <c r="E133">
-        <v>5</v>
-      </c>
-      <c r="F133">
-        <v>0.25</v>
-      </c>
-      <c r="G133">
-        <v>9</v>
-      </c>
-      <c r="H133">
-        <v>8.975975975975976</v>
-      </c>
-      <c r="I133">
-        <v>0.002669336002669336</v>
-      </c>
-      <c r="J133">
-        <v>0.02402402402402402</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Targalla palliatrix</t>
-        </is>
-      </c>
-      <c r="B134">
-        <v>5</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-      <c r="D134">
-        <v>4</v>
-      </c>
-      <c r="E134">
-        <v>5</v>
-      </c>
-      <c r="F134">
-        <v>0.8</v>
-      </c>
-      <c r="G134">
-        <v>7.618618618618618</v>
-      </c>
-      <c r="H134">
-        <v>0.9319319319319319</v>
-      </c>
-      <c r="I134">
-        <v>0.8772991245213467</v>
-      </c>
-      <c r="J134">
-        <v>6.686686686686687</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Tipasa sp. AAI0377</t>
-        </is>
-      </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <v>2.676220806794055</v>
-      </c>
-      <c r="H135">
-        <v>1.867303609341826</v>
-      </c>
-      <c r="I135">
-        <v>0.2971716712162572</v>
-      </c>
-      <c r="J135">
-        <v>0.8089171974522293</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Tipasa sp. GEOM158</t>
-        </is>
-      </c>
-      <c r="B136">
-        <v>2</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
-      </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="E136">
-        <v>2</v>
-      </c>
-      <c r="F136">
-        <v>0.5</v>
-      </c>
-      <c r="G136">
-        <v>4.35140562248996</v>
-      </c>
-      <c r="H136">
-        <v>0.9728915662650602</v>
-      </c>
-      <c r="I136">
-        <v>0.7765012430675081</v>
-      </c>
-      <c r="J136">
-        <v>3.378514056224899</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Unadophanes trissomita</t>
-        </is>
-      </c>
-      <c r="B137">
-        <v>9</v>
-      </c>
-      <c r="C137">
-        <v>7</v>
-      </c>
-      <c r="D137">
-        <v>2</v>
-      </c>
-      <c r="E137">
-        <v>9</v>
-      </c>
-      <c r="F137">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="G137">
-        <v>9</v>
-      </c>
-      <c r="H137">
-        <v>8.998998998998999</v>
-      </c>
-      <c r="I137">
-        <v>0.0001112223334445557</v>
-      </c>
-      <c r="J137">
-        <v>0.001001001001001001</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Xenothictis gnetivora</t>
-        </is>
-      </c>
-      <c r="B138">
-        <v>8</v>
-      </c>
-      <c r="C138">
-        <v>3</v>
-      </c>
-      <c r="D138">
-        <v>5</v>
-      </c>
-      <c r="E138">
-        <v>8</v>
-      </c>
-      <c r="F138">
-        <v>0.625</v>
-      </c>
-      <c r="G138">
-        <v>8.840840840840841</v>
-      </c>
-      <c r="H138">
-        <v>3.787787787787788</v>
-      </c>
-      <c r="I138">
-        <v>0.5720164609053497</v>
-      </c>
-      <c r="J138">
-        <v>5.053053053053053</v>
+        <v>4.253253253253253</v>
       </c>
     </row>
   </sheetData>
